--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02166EFE-14B0-493B-B76E-02C4DFFB76DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D5CED2-13EF-4ED4-8649-1E339673EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>сделано</t>
+  </si>
+  <si>
+    <t>Сделано</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -204,6 +207,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -212,6 +218,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,53 +562,56 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="str">
-        <f>$L$2</f>
+        <f>$M$2</f>
         <v>+</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f>$L$2</f>
+        <f>$M$2</f>
         <v>+</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -599,532 +620,585 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="6">
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="14">
+        <f>COUNTIF(B2:G2,"!")</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="6">
         <f>COUNTIF(B2:G2,"+")</f>
         <v>2</v>
       </c>
-      <c r="I2" s="6">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="J2" s="6">
+        <v>5</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="M2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f>$L$3</f>
+        <f>$M$3</f>
         <v>-</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f>$L$3</f>
+        <f>$M$3</f>
         <v>-</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f>$L$3</f>
+        <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F3" s="10" t="str">
-        <f>$L$3</f>
+      <c r="F3" s="11" t="str">
+        <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H16" si="0">COUNTIF(B3:G3,"+")</f>
+      <c r="G3" s="12"/>
+      <c r="H3" s="14">
+        <f t="shared" ref="H3:H17" si="0">COUNTIF(B3:G3,"!")</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="H3:I16" si="1">COUNTIF(B3:G3,"+")</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="L3" s="4" t="s">
+      <c r="J3" s="6">
+        <v>5</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="M3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="str">
-        <f>$L$2</f>
+        <f>$M$2</f>
         <v>+</v>
       </c>
       <c r="C4" s="6" t="str">
-        <f>$L$2</f>
+        <f>$M$2</f>
         <v>+</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f>$L$2</f>
+        <f>$M$2</f>
         <v>+</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="F4" s="10" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="G4" s="11"/>
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G4" s="12"/>
       <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <f>COUNTIF(B4:G4,"+")</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>5</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="M4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="14">
+        <f>COUNTIF(B5:G5,"!")</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="L4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="6">
+      <c r="J6" s="6">
+        <v>5</v>
+      </c>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f t="shared" ref="B7:D10" si="2">$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>$M$3</f>
+        <v>-</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6</v>
+      </c>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="C6" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="D6" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="6">
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5</v>
+      </c>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5</v>
+      </c>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="F10" s="11" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>5</v>
+      </c>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f>$M$3</f>
+        <v>-</v>
+      </c>
+      <c r="F12" s="11" t="str">
+        <f>$M$3</f>
+        <v>-</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>5</v>
+      </c>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f t="shared" ref="B13:G13" si="3">$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9</v>
+      </c>
+      <c r="J13" s="7">
+        <v>9</v>
+      </c>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>5</v>
+      </c>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I6" s="6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>5</v>
+      </c>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5</v>
+      </c>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f>$M$4</f>
+        <v>!</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>$M$4</f>
+        <v>!</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>$M$4</f>
+        <v>!</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="str">
-        <f t="shared" ref="B7:D10" si="1">$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="C7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="D7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6" t="str">
-        <f>$L$3</f>
-        <v>-</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I7" s="6">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="C8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="D8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I8" s="6">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="F9" s="10" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I9" s="7">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="C10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="F10" s="10" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="C11" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6" t="str">
-        <f>$L$3</f>
-        <v>-</v>
-      </c>
-      <c r="F12" s="10" t="str">
-        <f>$L$3</f>
-        <v>-</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="str">
-        <f t="shared" ref="B13:G13" si="2">$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="C13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>+</v>
-      </c>
-      <c r="D13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>+</v>
-      </c>
-      <c r="E13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>+</v>
-      </c>
-      <c r="F13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>+</v>
-      </c>
-      <c r="G13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>+</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I14" s="6">
-        <v>5</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="str">
-        <f>$L$2</f>
-        <v>+</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>5</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>5</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="str">
-        <f>$L$4</f>
-        <v>!</v>
-      </c>
-      <c r="C17" s="6" t="str">
-        <f>$L$4</f>
-        <v>!</v>
-      </c>
-      <c r="D17" s="6" t="str">
-        <f>$L$4</f>
-        <v>!</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <f>COUNTIF(B17:G17,"+")</f>
         <v>0</v>
       </c>
-      <c r="I17" s="6">
-        <v>5</v>
-      </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="6">
+        <v>5</v>
+      </c>
+      <c r="K17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+  <mergeCells count="15">
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F8:G8"/>
@@ -1133,8 +1207,14 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F16 B17:G17">
+  <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F17">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
@@ -1167,13 +1247,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ispp31\DBDaPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D5CED2-13EF-4ED4-8649-1E339673EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Лабораторные" sheetId="1" r:id="rId1"/>
     <sheet name="Практические" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -210,6 +209,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -217,19 +225,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +580,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -589,16 +591,16 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -620,11 +622,11 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14">
+      <c r="F2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="11">
         <f>COUNTIF(B2:G2,"!")</f>
         <v>3</v>
       </c>
@@ -635,7 +637,7 @@
       <c r="J2" s="6">
         <v>5</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="13"/>
       <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
@@ -662,23 +664,23 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="14" t="str">
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="14">
+      <c r="G3" s="15"/>
+      <c r="H3" s="11">
         <f t="shared" ref="H3:H17" si="0">COUNTIF(B3:G3,"!")</f>
         <v>1</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="H3:I16" si="1">COUNTIF(B3:G3,"+")</f>
+        <f t="shared" ref="I3:I16" si="1">COUNTIF(B3:G3,"+")</f>
         <v>0</v>
       </c>
       <c r="J3" s="6">
         <v>5</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="13"/>
       <c r="M3" s="4" t="s">
         <v>6</v>
       </c>
@@ -706,11 +708,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F4" s="11" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G4" s="12"/>
+      <c r="F4" s="14" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G4" s="15"/>
       <c r="H4" s="7">
         <v>5</v>
       </c>
@@ -721,7 +723,7 @@
       <c r="J4" s="7">
         <v>5</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="13"/>
       <c r="M4" s="5" t="s">
         <v>7</v>
       </c>
@@ -745,11 +747,11 @@
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14">
+      <c r="F5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="11">
         <f>COUNTIF(B5:G5,"!")</f>
         <v>5</v>
       </c>
@@ -760,7 +762,7 @@
       <c r="J5" s="6">
         <v>5</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -782,11 +784,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14">
+      <c r="F6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -797,7 +799,7 @@
       <c r="J6" s="6">
         <v>5</v>
       </c>
-      <c r="K6" s="17"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -825,7 +827,7 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -836,7 +838,7 @@
       <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="K7" s="17"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -858,11 +860,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14">
+      <c r="G8" s="15"/>
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -873,7 +875,7 @@
       <c r="J8" s="6">
         <v>5</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -895,11 +897,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F9" s="11" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G9" s="12"/>
+      <c r="F9" s="14" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="7">
         <v>5</v>
       </c>
@@ -910,7 +912,7 @@
       <c r="J9" s="7">
         <v>5</v>
       </c>
-      <c r="K9" s="17"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -932,11 +934,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F10" s="11" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G10" s="12"/>
+      <c r="F10" s="14" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="7">
         <v>5</v>
       </c>
@@ -947,7 +949,7 @@
       <c r="J10" s="7">
         <v>5</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -967,11 +969,11 @@
       <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -982,7 +984,7 @@
       <c r="J11" s="6">
         <v>5</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1001,12 +1003,12 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="14" t="str">
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14">
+      <c r="G12" s="15"/>
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1017,7 +1019,7 @@
       <c r="J12" s="6">
         <v>5</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -1056,7 +1058,7 @@
       <c r="J13" s="7">
         <v>9</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -1076,11 +1078,11 @@
       <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14">
+      <c r="F14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1091,7 +1093,7 @@
       <c r="J14" s="6">
         <v>5</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1110,11 +1112,11 @@
       <c r="E15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="14">
+      <c r="F15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1125,40 +1127,39 @@
       <c r="J15" s="6">
         <v>5</v>
       </c>
-      <c r="K15" s="17"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="18">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>5</v>
-      </c>
-      <c r="K16" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5</v>
+      </c>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1179,11 +1180,11 @@
       <c r="E17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="14">
+      <c r="G17" s="15"/>
+      <c r="H17" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1194,10 +1195,16 @@
       <c r="J17" s="6">
         <v>5</v>
       </c>
-      <c r="K17" s="17"/>
+      <c r="K17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1207,12 +1214,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F17">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -1231,7 +1232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A73394-6FC8-453B-B369-C97912BF1179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1247,13 +1248,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ispp31\DBDaPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CFA366-77AD-452E-9692-4EE732D20C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лабораторные" sheetId="1" r:id="rId1"/>
     <sheet name="Практические" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -218,6 +219,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,9 +236,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,14 +564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,14 +587,14 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
@@ -622,10 +626,10 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15"/>
+      <c r="F2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="17"/>
       <c r="H2" s="11">
         <f>COUNTIF(B2:G2,"!")</f>
         <v>3</v>
@@ -664,11 +668,11 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F3" s="14" t="str">
+      <c r="F3" s="16" t="str">
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="11">
         <f t="shared" ref="H3:H17" si="0">COUNTIF(B3:G3,"!")</f>
         <v>1</v>
@@ -708,11 +712,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F4" s="14" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G4" s="15"/>
+      <c r="F4" s="16" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G4" s="17"/>
       <c r="H4" s="7">
         <v>5</v>
       </c>
@@ -747,10 +751,10 @@
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="17"/>
       <c r="H5" s="11">
         <f>COUNTIF(B5:G5,"!")</f>
         <v>5</v>
@@ -784,10 +788,10 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -860,10 +864,10 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="15"/>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="17"/>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -897,11 +901,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F9" s="14" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G9" s="15"/>
+      <c r="F9" s="16" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G9" s="17"/>
       <c r="H9" s="7">
         <v>5</v>
       </c>
@@ -934,11 +938,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F10" s="14" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="F10" s="16" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="7">
         <v>5</v>
       </c>
@@ -969,10 +973,10 @@
       <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1003,11 +1007,11 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="16" t="str">
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1078,10 +1082,10 @@
       <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="17"/>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1112,10 +1116,10 @@
       <c r="E15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="17"/>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1145,11 +1149,11 @@
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="18">
+      <c r="F16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15">
         <v>4</v>
       </c>
       <c r="I16" s="7">
@@ -1180,10 +1184,10 @@
       <c r="E17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="15"/>
+      <c r="F17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="17"/>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1197,14 +1201,88 @@
       </c>
       <c r="K17" s="13"/>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="11">
+        <f t="shared" ref="H18:H20" si="4">COUNTIF(B19:G19,"!")</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" ref="I18:I20" si="5">COUNTIF(B19:G19,"+")</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>4</v>
+      </c>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>4</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+  <mergeCells count="20">
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1214,8 +1292,14 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F17">
+  <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F18 B19:D20 F19:F20">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
@@ -1232,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1248,13 +1332,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CFA366-77AD-452E-9692-4EE732D20C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E394140-3C75-44B1-B7DA-855363FF6BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лабораторные" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -228,6 +228,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -571,7 +575,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,14 +591,14 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
@@ -626,10 +630,10 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="18"/>
       <c r="H2" s="11">
         <f>COUNTIF(B2:G2,"!")</f>
         <v>3</v>
@@ -668,11 +672,11 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F3" s="16" t="str">
+      <c r="F3" s="17" t="str">
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="11">
         <f t="shared" ref="H3:H17" si="0">COUNTIF(B3:G3,"!")</f>
         <v>1</v>
@@ -712,11 +716,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F4" s="16" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G4" s="17"/>
+      <c r="F4" s="17" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G4" s="18"/>
       <c r="H4" s="7">
         <v>5</v>
       </c>
@@ -751,10 +755,10 @@
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="18"/>
       <c r="H5" s="11">
         <f>COUNTIF(B5:G5,"!")</f>
         <v>5</v>
@@ -788,10 +792,10 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="18"/>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -864,10 +868,10 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -901,11 +905,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F9" s="16" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G9" s="17"/>
+      <c r="F9" s="17" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G9" s="18"/>
       <c r="H9" s="7">
         <v>5</v>
       </c>
@@ -938,11 +942,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F10" s="16" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G10" s="17"/>
+      <c r="F10" s="17" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G10" s="18"/>
       <c r="H10" s="7">
         <v>5</v>
       </c>
@@ -973,10 +977,10 @@
       <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="18"/>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1007,11 +1011,11 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="17" t="str">
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1082,10 +1086,10 @@
       <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="18"/>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1116,10 +1120,10 @@
       <c r="E15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="18"/>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1149,10 +1153,10 @@
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="18"/>
       <c r="H16" s="15">
         <v>4</v>
       </c>
@@ -1184,10 +1188,10 @@
       <c r="E17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1207,8 +1211,8 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="11"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1219,25 +1223,25 @@
         <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="11">
-        <f t="shared" ref="H18:H20" si="4">COUNTIF(B19:G19,"!")</f>
-        <v>0</v>
+        <f t="shared" ref="H19:H20" si="4">COUNTIF(B19:G19,"!")</f>
+        <v>1</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" ref="I18:I20" si="5">COUNTIF(B19:G19,"+")</f>
+        <f t="shared" ref="I19:I20" si="5">COUNTIF(B19:G19,"+")</f>
         <v>0</v>
       </c>
       <c r="J19" s="6">
@@ -1250,22 +1254,22 @@
         <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="5"/>
@@ -1317,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,14 +1336,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1368,7 +1372,7 @@
       <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <f>COUNTIF(B2:F2,"+")</f>
         <v>0</v>
       </c>
@@ -1402,11 +1406,11 @@
       <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <f>COUNTIF(B3:F3,"+")</f>
         <v>5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>5</v>
       </c>
       <c r="I3" s="1"/>
@@ -1421,13 +1425,28 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8">
+        <f>COUNTIF(B4:F4,"+")</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="5" t="s">
         <v>7</v>
@@ -1435,12 +1454,25 @@
       <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:F4">
+  <conditionalFormatting sqref="B2:F5">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ispp31\DBDaPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E394140-3C75-44B1-B7DA-855363FF6BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лабораторные" sheetId="1" r:id="rId1"/>
     <sheet name="Практические" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,6 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,7 +240,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -568,13 +567,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -591,14 +590,14 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
@@ -630,10 +629,10 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="19"/>
       <c r="H2" s="11">
         <f>COUNTIF(B2:G2,"!")</f>
         <v>3</v>
@@ -672,11 +671,11 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F3" s="17" t="str">
+      <c r="F3" s="18" t="str">
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="11">
         <f t="shared" ref="H3:H17" si="0">COUNTIF(B3:G3,"!")</f>
         <v>1</v>
@@ -716,11 +715,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F4" s="17" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G4" s="18"/>
+      <c r="F4" s="18" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G4" s="19"/>
       <c r="H4" s="7">
         <v>5</v>
       </c>
@@ -755,10 +754,10 @@
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="19"/>
       <c r="H5" s="11">
         <f>COUNTIF(B5:G5,"!")</f>
         <v>5</v>
@@ -792,10 +791,10 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="19"/>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -868,10 +867,10 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -905,11 +904,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F9" s="17" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G9" s="18"/>
+      <c r="F9" s="18" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G9" s="19"/>
       <c r="H9" s="7">
         <v>5</v>
       </c>
@@ -942,11 +941,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F10" s="17" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G10" s="18"/>
+      <c r="F10" s="18" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="7">
         <v>5</v>
       </c>
@@ -977,10 +976,10 @@
       <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="19"/>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1011,11 +1010,11 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F12" s="18" t="str">
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1086,10 +1085,10 @@
       <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="19"/>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1120,10 +1119,10 @@
       <c r="E15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19"/>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1153,10 +1152,10 @@
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="19"/>
       <c r="H16" s="15">
         <v>4</v>
       </c>
@@ -1188,10 +1187,10 @@
       <c r="E17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1211,8 +1210,8 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="11"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1228,14 +1227,14 @@
       <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="11">
         <f t="shared" ref="H19:H20" si="4">COUNTIF(B19:G19,"!")</f>
         <v>1</v>
@@ -1259,14 +1258,14 @@
       <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1282,11 +1281,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1296,12 +1296,11 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F18 B19:D20 F19:F20">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -1320,11 +1319,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,14 +1335,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1432,17 +1431,17 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="8">
         <f>COUNTIF(B4:F4,"+")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="6">
         <v>5</v>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ispp31\DBDaPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D41D6-8774-4833-96AC-2F89285F713D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лабораторные" sheetId="1" r:id="rId1"/>
     <sheet name="Практические" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -228,6 +229,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,14 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,14 +594,14 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
@@ -629,10 +633,10 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="19"/>
+      <c r="F2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="20"/>
       <c r="H2" s="11">
         <f>COUNTIF(B2:G2,"!")</f>
         <v>3</v>
@@ -671,13 +675,13 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F3" s="18" t="str">
+      <c r="F3" s="19" t="str">
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="11">
-        <f t="shared" ref="H3:H17" si="0">COUNTIF(B3:G3,"!")</f>
+        <f t="shared" ref="H3:H15" si="0">COUNTIF(B3:G3,"!")</f>
         <v>1</v>
       </c>
       <c r="I3" s="6">
@@ -715,11 +719,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F4" s="18" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G4" s="19"/>
+      <c r="F4" s="19" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G4" s="20"/>
       <c r="H4" s="7">
         <v>5</v>
       </c>
@@ -754,10 +758,10 @@
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="11">
         <f>COUNTIF(B5:G5,"!")</f>
         <v>5</v>
@@ -791,10 +795,10 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="20"/>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -867,10 +871,10 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="20"/>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -904,11 +908,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F9" s="18" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G9" s="19"/>
+      <c r="F9" s="19" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G9" s="20"/>
       <c r="H9" s="7">
         <v>5</v>
       </c>
@@ -941,11 +945,11 @@
         <f>$M$2</f>
         <v>+</v>
       </c>
-      <c r="F10" s="18" t="str">
-        <f>$M$2</f>
-        <v>+</v>
-      </c>
-      <c r="G10" s="19"/>
+      <c r="F10" s="19" t="str">
+        <f>$M$2</f>
+        <v>+</v>
+      </c>
+      <c r="G10" s="20"/>
       <c r="H10" s="7">
         <v>5</v>
       </c>
@@ -976,10 +980,10 @@
       <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="20"/>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1010,11 +1014,11 @@
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="F12" s="18" t="str">
+      <c r="F12" s="19" t="str">
         <f>$M$3</f>
         <v>-</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1085,10 +1089,10 @@
       <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="20"/>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1119,10 +1123,10 @@
       <c r="E15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="20"/>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1152,10 +1156,10 @@
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="19"/>
+      <c r="F16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="20"/>
       <c r="H16" s="15">
         <v>4</v>
       </c>
@@ -1187,12 +1191,12 @@
       <c r="E17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="20"/>
       <c r="H17" s="11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:G17,"!")</f>
         <v>3</v>
       </c>
       <c r="I17" s="6">
@@ -1205,88 +1209,311 @@
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="11">
+        <f t="shared" ref="H18:H20" si="4">COUNTIF(B18:G18,"!")</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" ref="I18:I20" si="5">COUNTIF(B18:G18,"+")</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>24</v>
+      <c r="A19" s="18">
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="19"/>
+      <c r="D19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="20"/>
       <c r="H19" s="11">
-        <f t="shared" ref="H19:H20" si="4">COUNTIF(B19:G19,"!")</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" ref="I19:I20" si="5">COUNTIF(B19:G19,"+")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J19" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>25</v>
+      <c r="A20" s="18">
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="19"/>
+      <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="20"/>
       <c r="H20" s="11">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J20" s="6">
+        <v>5</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="11">
+        <f t="shared" ref="H21:H23" si="6">COUNTIF(B21:G21,"!")</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" ref="I21:I23" si="7">COUNTIF(B21:G21,"+")</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5</v>
+      </c>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>5</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>5</v>
+      </c>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="11">
+        <f t="shared" ref="H24" si="8">COUNTIF(B24:G24,"!")</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" ref="I24" si="9">COUNTIF(B24:G24,"+")</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="6">
         <v>4</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="11">
+        <f t="shared" ref="H25:H26" si="10">COUNTIF(B25:G25,"!")</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" ref="I25:I26" si="11">COUNTIF(B25:G25,"+")</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>4</v>
+      </c>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="11">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>4</v>
+      </c>
+      <c r="K26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+  <mergeCells count="26">
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1296,13 +1523,14 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F18 B19:D20 F19:F20">
+  <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B25:D26 F25:F26 B14:F24">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
@@ -1319,10 +1547,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1335,13 +1563,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="17" t="s">
         <v>3</v>
       </c>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ispp31\DBDaPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D41D6-8774-4833-96AC-2F89285F713D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Лабораторные" sheetId="1" r:id="rId1"/>
     <sheet name="Практические" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,14 +570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:G17"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,10 +1212,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>6</v>
@@ -1230,11 +1229,11 @@
       <c r="G18" s="20"/>
       <c r="H18" s="11">
         <f t="shared" ref="H18:H20" si="4">COUNTIF(B18:G18,"!")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ref="I18:I20" si="5">COUNTIF(B18:G18,"+")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="6">
         <v>5</v>
@@ -1503,17 +1502,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1523,12 +1517,17 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B25:D26 F25:F26 B14:F24">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -1547,11 +1546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ispp31\DBDaPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC80D02A-82A9-4E7D-996E-A8FF0BEDD1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лабораторные" sheetId="1" r:id="rId1"/>
     <sheet name="Практические" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -1502,12 +1503,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1517,19 +1523,14 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B25:D26 F25:F26 B14:F24">
+  <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F24 B25:D26 F25:F26">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>
@@ -1546,11 +1547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,13 +1686,28 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8">
+        <f>COUNTIF(B5:F5,"+")</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
   </sheetData>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC80D02A-82A9-4E7D-996E-A8FF0BEDD1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE410EF-9A08-4334-AE9B-06ED23748581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лабораторные" sheetId="1" r:id="rId1"/>
@@ -577,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>6</v>
@@ -1230,7 +1230,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="11">
         <f t="shared" ref="H18:H20" si="4">COUNTIF(B18:G18,"!")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ref="I18:I20" si="5">COUNTIF(B18:G18,"+")</f>
@@ -1503,17 +1503,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1523,12 +1518,17 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F24 B25:D26 F25:F26">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -1550,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ispp31\DBDaPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE410EF-9A08-4334-AE9B-06ED23748581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Лабораторные" sheetId="1" r:id="rId1"/>
     <sheet name="Практические" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,14 +570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,19 +1245,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="11">
@@ -1267,7 +1266,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" s="6">
         <v>5</v>
@@ -1547,11 +1546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -576,8 +576,8 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,15 +1260,14 @@
         <v>5</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="H19" s="15">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="7">
         <v>5</v>
       </c>
       <c r="K19" s="13"/>
@@ -1278,31 +1277,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="20"/>
       <c r="F20" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="20"/>
-      <c r="H20" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="H20" s="15">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4</v>
       </c>
       <c r="K20" s="13"/>
     </row>
@@ -1501,13 +1497,19 @@
       <c r="K26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+  <mergeCells count="27">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1517,19 +1519,14 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F24 B25:D26 F25:F26">
+  <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F19 B25:D26 F25:F26 B21:F24 B20:D20 F20">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"!"</formula>
     </cfRule>

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="11">
-        <f t="shared" ref="H18:H20" si="4">COUNTIF(B18:G18,"!")</f>
+        <f t="shared" ref="H18" si="4">COUNTIF(B18:G18,"!")</f>
         <v>2</v>
       </c>
       <c r="I18" s="6">
@@ -1307,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>6</v>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" ref="I21:I23" si="7">COUNTIF(B21:G21,"+")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="6">
         <v>5</v>
@@ -1498,18 +1498,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1519,12 +1513,18 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F19 B25:D26 F25:F26 B21:F24 B20:D20 F20">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -576,8 +576,8 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>6</v>
@@ -1324,11 +1324,11 @@
       <c r="G21" s="20"/>
       <c r="H21" s="11">
         <f t="shared" ref="H21:H23" si="6">COUNTIF(B21:G21,"!")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ref="I21:I23" si="7">COUNTIF(B21:G21,"+")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="6">
         <v>5</v>
@@ -1373,7 +1373,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>6</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="6">
         <v>5</v>
@@ -1498,12 +1498,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1513,18 +1519,12 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F19 B25:D26 F25:F26 B21:F24 B20:D20 F20">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">

--- a/ТРиЗБД.xlsx
+++ b/ТРиЗБД.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,28 +1340,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="6">
         <v>5</v>
@@ -1498,18 +1498,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1519,12 +1513,18 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F6 B7:G7 B8:F12 B13:G13 B14:F19 B25:D26 F25:F26 B21:F24 B20:D20 F20">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
